--- a/Data/aearep-780/candidatepackages.xlsx
+++ b/Data/aearep-780/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,9 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -49,39 +43,27 @@
     <t>rev</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>imbalance</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>addnotes</t>
   </si>
   <si>
     <t>effects</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>tr</t>
   </si>
   <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>tr</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -94,24 +76,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-780</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-780/118805/do</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-780/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
     <t>0_programs.do</t>
   </si>
   <si>
@@ -122,9 +92,6 @@
   </si>
   <si>
     <t>2b_tables_appendix_pdslasso.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -168,7 +135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -176,13 +143,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -202,7 +169,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -214,7 +181,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -226,7 +193,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -238,7 +205,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -250,10 +217,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D7"/>
     </row>
@@ -262,10 +229,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>279</v>
+        <v>563</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D8"/>
     </row>
@@ -274,10 +241,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>565</v>
+        <v>746</v>
       </c>
       <c r="C9">
-        <v>0.18733422458171844</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D9"/>
     </row>
@@ -286,10 +253,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>566</v>
+        <v>955</v>
       </c>
       <c r="C10">
-        <v>0.18766577541828156</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D10"/>
     </row>
@@ -298,10 +265,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>698</v>
+        <v>988</v>
       </c>
       <c r="C11">
-        <v>0.23143236339092255</v>
+        <v>0.32661157846450806</v>
       </c>
       <c r="D11"/>
     </row>
@@ -310,10 +277,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>835</v>
+        <v>998</v>
       </c>
       <c r="C12">
-        <v>0.27685675024986267</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D12"/>
     </row>
@@ -322,10 +289,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>985</v>
+        <v>1385</v>
       </c>
       <c r="C13">
-        <v>0.32659152150154114</v>
+        <v>0.45785123109817505</v>
       </c>
       <c r="D13"/>
     </row>
@@ -334,10 +301,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1124</v>
+        <v>1497</v>
       </c>
       <c r="C14">
-        <v>0.37267905473709106</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D14"/>
     </row>
@@ -346,10 +313,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1133</v>
+        <v>1975</v>
       </c>
       <c r="C15">
-        <v>0.37566313147544861</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D15"/>
     </row>
@@ -358,84 +325,12 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1312</v>
+        <v>2030</v>
       </c>
       <c r="C16">
-        <v>0.43501326441764832</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1660</v>
-      </c>
-      <c r="C17">
-        <v>0.55039787292480469</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1798</v>
-      </c>
-      <c r="C18">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1817</v>
-      </c>
-      <c r="C19">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1835</v>
-      </c>
-      <c r="C20">
-        <v>0.60842174291610718</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1859</v>
-      </c>
-      <c r="C21">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1951</v>
-      </c>
-      <c r="C22">
-        <v>0.64688330888748169</v>
-      </c>
-      <c r="D22"/>
     </row>
   </sheetData>
 </worksheet>
@@ -443,71 +338,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
